--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value548.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value548.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6850506521314346</v>
+        <v>1.544602274894714</v>
       </c>
       <c r="B1">
-        <v>0.7546287870735995</v>
+        <v>1.782876253128052</v>
       </c>
       <c r="C1">
-        <v>0.8965759875268682</v>
+        <v>1.832174062728882</v>
       </c>
       <c r="D1">
-        <v>1.568041666724881</v>
+        <v>2.254343032836914</v>
       </c>
       <c r="E1">
-        <v>3.603679274624387</v>
+        <v>3.303630113601685</v>
       </c>
     </row>
   </sheetData>
